--- a/app/Licenciatura_em_Producao_Animal.xlsx
+++ b/app/Licenciatura_em_Producao_Animal.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -187,9 +187,6 @@
     <t>Maria JoÃo Demba</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -226,9 +223,6 @@
     <t>Isaura Chibulache Chivamb</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -256,9 +250,6 @@
     <t>Marina Muchongo</t>
   </si>
   <si>
-    <t>Distrito de Chókwé</t>
-  </si>
-  <si>
     <t>09060657222F</t>
   </si>
   <si>
@@ -283,9 +274,6 @@
     <t>Anita Bastiao</t>
   </si>
   <si>
-    <t>Distrito de Vilanculos</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -334,9 +322,6 @@
     <t>Eugenia Samuge</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>040102827739P</t>
   </si>
   <si>
@@ -361,9 +346,6 @@
     <t>Fatima Abdala</t>
   </si>
   <si>
-    <t>Cidade de Pemba</t>
-  </si>
-  <si>
     <t>020102756168J</t>
   </si>
   <si>
@@ -388,9 +370,6 @@
     <t>Antoninha Silica</t>
   </si>
   <si>
-    <t>Distrito de Homoine</t>
-  </si>
-  <si>
     <t>080401212170S</t>
   </si>
   <si>
@@ -415,9 +394,6 @@
     <t>Marcia Mahumane</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110100422437C</t>
   </si>
   <si>
@@ -505,9 +481,6 @@
     <t>Serafina Meleco Vilanculo</t>
   </si>
   <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
     <t>080102464132J</t>
   </si>
   <si>
@@ -529,9 +502,6 @@
     <t>Ines Pedro Bila</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>090102594325C</t>
   </si>
   <si>
@@ -556,9 +526,6 @@
     <t>Emilia Da Gloria</t>
   </si>
   <si>
-    <t>Cidade de Maxixe</t>
-  </si>
-  <si>
     <t>080102189578A</t>
   </si>
   <si>
@@ -604,9 +571,6 @@
     <t>Maiassa Manuel Mainato</t>
   </si>
   <si>
-    <t>Distrito de Mocuba</t>
-  </si>
-  <si>
     <t>041104203836C</t>
   </si>
   <si>
@@ -650,9 +614,6 @@
   </si>
   <si>
     <t>Anastancia Miguel Alfinet</t>
-  </si>
-  <si>
-    <t>Distrito de Magude</t>
   </si>
   <si>
     <t>100201392290P</t>
@@ -1942,7 +1903,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1958,7 +1919,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1974,7 +1935,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1990,7 +1951,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2006,7 +1967,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2021,9 +1982,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>125</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2031,7 +1990,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2042,7 +2001,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2051,7 +2010,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2063,7 +2022,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2071,7 +2030,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2167,7 +2126,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2210,7 +2169,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2537,7 +2496,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2553,7 +2512,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2569,7 +2528,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2585,7 +2544,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2601,7 +2560,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2616,9 +2575,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2626,7 +2583,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2637,7 +2594,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2646,7 +2603,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2658,7 +2615,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2666,7 +2623,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2762,7 +2719,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2805,7 +2762,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3132,7 +3089,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3148,7 +3105,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3164,7 +3121,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3180,7 +3137,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3196,7 +3153,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3211,9 +3168,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3221,7 +3176,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3232,7 +3187,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3241,7 +3196,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3253,7 +3208,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3357,7 +3312,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3400,7 +3355,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3727,7 +3682,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3743,7 +3698,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3759,7 +3714,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3775,7 +3730,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3791,7 +3746,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3806,9 +3761,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3816,7 +3769,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3827,7 +3780,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3836,7 +3789,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3848,7 +3801,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3856,7 +3809,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3952,7 +3905,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3995,7 +3948,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4322,7 +4275,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4338,7 +4291,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4354,7 +4307,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4370,7 +4323,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4386,7 +4339,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4401,9 +4354,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>155</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4411,7 +4362,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4422,7 +4373,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4431,7 +4382,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4443,7 +4394,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4451,7 +4402,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4547,7 +4498,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4590,7 +4541,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4917,7 +4868,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4933,7 +4884,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4949,7 +4900,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4965,7 +4916,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4981,7 +4932,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4996,9 +4947,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>163</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5006,7 +4955,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5017,7 +4966,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5026,7 +4975,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5038,7 +4987,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5046,7 +4995,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5142,7 +5091,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5185,7 +5134,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5512,7 +5461,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5528,7 +5477,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5544,7 +5493,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5560,7 +5509,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5576,7 +5525,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5591,9 +5540,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>172</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5601,7 +5548,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5612,7 +5559,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5621,7 +5568,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5633,7 +5580,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5641,7 +5588,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5737,7 +5684,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5780,7 +5727,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6107,7 +6054,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6123,7 +6070,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6139,7 +6086,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6155,7 +6102,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6171,7 +6118,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6186,9 +6133,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6196,7 +6141,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6207,7 +6152,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6216,7 +6161,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6228,7 +6173,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6236,7 +6181,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6332,7 +6277,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6375,7 +6320,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6702,7 +6647,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6718,7 +6663,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6734,7 +6679,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6750,7 +6695,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6766,7 +6711,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6781,9 +6726,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>188</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6791,7 +6734,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6802,7 +6745,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6811,7 +6754,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6823,7 +6766,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6831,7 +6774,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6927,7 +6870,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6970,7 +6913,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7297,7 +7240,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7313,7 +7256,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7329,7 +7272,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7345,7 +7288,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7361,7 +7304,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7376,9 +7319,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7386,7 +7327,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7397,7 +7338,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7406,7 +7347,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7418,7 +7359,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7426,7 +7367,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7522,7 +7463,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7565,7 +7506,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7971,9 +7912,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7981,7 +7920,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7992,7 +7931,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8001,7 +7940,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8013,7 +7952,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8021,7 +7960,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8117,7 +8056,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8160,7 +8099,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8487,7 +8426,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8503,7 +8442,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8519,7 +8458,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8535,7 +8474,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8551,7 +8490,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8566,9 +8505,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>204</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8576,7 +8513,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8587,7 +8524,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8596,7 +8533,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8608,7 +8545,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8616,7 +8553,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8712,7 +8649,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8755,7 +8692,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9082,7 +9019,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9098,7 +9035,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9114,7 +9051,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9130,7 +9067,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9146,7 +9083,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9161,9 +9098,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9171,7 +9106,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9182,7 +9117,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9191,7 +9126,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9203,7 +9138,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9211,7 +9146,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9307,7 +9242,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9350,7 +9285,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9733,7 +9668,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9749,7 +9684,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9765,7 +9700,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9781,7 +9716,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9797,7 +9732,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9812,9 +9747,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9822,7 +9755,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9833,7 +9766,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9842,7 +9775,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9854,7 +9787,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9862,7 +9795,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9958,7 +9891,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10001,7 +9934,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10328,7 +10261,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10344,7 +10277,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10360,7 +10293,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10376,7 +10309,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10392,7 +10325,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10407,9 +10340,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10417,7 +10348,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10428,7 +10359,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10437,7 +10368,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10449,7 +10380,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10457,7 +10388,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10553,7 +10484,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10596,7 +10527,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10923,7 +10854,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10939,7 +10870,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10955,7 +10886,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10971,7 +10902,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10987,7 +10918,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11002,9 +10933,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11012,7 +10941,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11023,7 +10952,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11032,7 +10961,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11044,7 +10973,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11148,7 +11077,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11191,7 +11120,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11518,7 +11447,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11534,7 +11463,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11550,7 +11479,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11566,7 +11495,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11582,7 +11511,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11597,9 +11526,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11607,7 +11534,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11618,7 +11545,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11627,7 +11554,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11639,7 +11566,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11647,7 +11574,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11743,7 +11670,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11786,7 +11713,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12113,7 +12040,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12129,7 +12056,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12145,7 +12072,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12161,7 +12088,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12177,7 +12104,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12192,9 +12119,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12202,7 +12127,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12213,7 +12138,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12222,7 +12147,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12234,7 +12159,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12242,7 +12167,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12338,7 +12263,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12381,7 +12306,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12708,7 +12633,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12724,7 +12649,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12740,7 +12665,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12756,7 +12681,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12772,7 +12697,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12787,9 +12712,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12797,7 +12720,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12808,7 +12731,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12817,7 +12740,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12829,7 +12752,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12837,7 +12760,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12933,7 +12856,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12976,7 +12899,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13303,7 +13226,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13319,7 +13242,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13335,7 +13258,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13351,7 +13274,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13367,7 +13290,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13382,9 +13305,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>116</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13392,7 +13313,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13403,7 +13324,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13412,7 +13333,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13424,7 +13345,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13432,7 +13353,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13528,7 +13449,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13571,7 +13492,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
